--- a/CNIntelligibility/mergedIntelligibility_levenshtein.xlsx
+++ b/CNIntelligibility/mergedIntelligibility_levenshtein.xlsx
@@ -441,152 +441,152 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>01-21377035</t>
+          <t>01-22377201</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>02-22377202</t>
+          <t>02-22377333</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>03-21377053</t>
+          <t>03-21377348</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>04-21377256</t>
+          <t>04-21379216</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>05-21377006</t>
+          <t>05-21377151</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>06-21377242</t>
+          <t>06-21377076</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>07-sy2308207</t>
+          <t>07-21377259</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>08-21377175</t>
+          <t>08-y2342116</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>09-21377163</t>
+          <t>09-21377174</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-sy2308220</t>
+          <t>10-21377335</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>11-22377339</t>
+          <t>11-21377187</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>12-20377292</t>
+          <t>12-22377142</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>13-20377387</t>
+          <t>13-21377181</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>14-20377359</t>
+          <t>14-21377369</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>15-BY2308108</t>
+          <t>15-22377053</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>16-by2308145</t>
+          <t>16-22377084</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>17-zy2308131</t>
+          <t>17-21377185</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>18-BY2308106</t>
+          <t>18-21377184</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>19-BY2308111</t>
+          <t>19-y2314202</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>20-ZY2207207</t>
+          <t>20-21377171</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>21-by2308134</t>
+          <t>21-22377260</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>22-22377318</t>
+          <t>22-21377225</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>23-21377298</t>
+          <t>23-22377206</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>24-BY2308103</t>
+          <t>24-21377003</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>25-SY2308310</t>
+          <t>25-22377028</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>26-22374085</t>
+          <t>26-22377005</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>27-22377099</t>
+          <t>27-21377255</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>28-21377086</t>
+          <t>28-21081004</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>29-21377061</t>
+          <t>29-21377119</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>30-21377172</t>
+          <t>30-y2314105</t>
         </is>
       </c>
     </row>
@@ -597,94 +597,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2745767745767745</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8427807486631016</v>
+        <v>0.5949519230769231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2547095761381476</v>
+        <v>0.0606060606060605</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1584415584415584</v>
+        <v>0.0647058823529411</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1222222222222221</v>
+        <v>0.0803030303030302</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2709181365897783</v>
+        <v>0.0511904761904761</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2602439024390244</v>
+        <v>0.09217506631299729</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2504027926960258</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2139880952380952</v>
+        <v>0.0606060606060605</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1976828912853395</v>
+        <v>0.06354166666666659</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2467532467532467</v>
+        <v>0.1019585253456221</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2930161943319838</v>
+        <v>0.1155462184873949</v>
       </c>
       <c r="N2" t="n">
-        <v>0.277132277834525</v>
+        <v>0.1017241379310344</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1942371475953565</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2386363636363636</v>
+        <v>0.06562499999999991</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.189405087239857</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2196248196248196</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2883645765998707</v>
+        <v>0.0722222222222222</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1977783452502554</v>
+        <v>0.09784946236559131</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2311529933481153</v>
+        <v>0.015625</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1921052631578947</v>
+        <v>0.0542328042328042</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2906746031746031</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5052702702702703</v>
+        <v>0.5845383759733036</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3122353297035693</v>
+        <v>0.1784946236559139</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3090783090783091</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5283422459893048</v>
+        <v>0.6742788461538461</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2382260596546311</v>
+        <v>0.0303030303030302</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2274255156608097</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1826797385620915</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2593144560357675</v>
+        <v>0.0166666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -694,94 +694,94 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.235545672254533</v>
+        <v>0.0802083333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25625</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2946428571428571</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4056756756756756</v>
+        <v>0.8375973303670745</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3565486993345432</v>
+        <v>0.3940860215053763</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3226908226908226</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>0.636105476673428</v>
+        <v>0.7091346153846154</v>
       </c>
       <c r="I3" t="n">
-        <v>0.239403453689168</v>
+        <v>0.0724815724815725</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2085561497326203</v>
+        <v>0.0517241379310344</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2339869281045751</v>
+        <v>0.0636363636363636</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2996770988574267</v>
+        <v>0.0844827586206896</v>
       </c>
       <c r="M3" t="n">
-        <v>0.217560975609756</v>
+        <v>0.09217506631299729</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2504027926960258</v>
+        <v>0.1099706744868035</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1723214285714285</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2312008160886039</v>
+        <v>0.0669642857142857</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.178030303030303</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2918353576248313</v>
+        <v>0.1102564102564102</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2487231869254341</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="T3" t="n">
-        <v>0.183080808080808</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2505681818181818</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1968677738070212</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2761904761904762</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2165481577246283</v>
+        <v>0.0537037037037037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1922242083758937</v>
+        <v>0.0514888337468982</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2414471433458775</v>
+        <v>0.0322916666666666</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2878289473684211</v>
+        <v>0.07275132275132271</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2966269841269841</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.4914864864864865</v>
+        <v>0.2958843159065628</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2037205081669691</v>
+        <v>0.4424731182795699</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3635778635778636</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4">
@@ -791,94 +791,94 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1749325236167341</v>
+        <v>0.1126373626373626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.214632277834525</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2297979797979797</v>
+        <v>0.06601731601731591</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06874999999999989</v>
+        <v>0.0857142857142856</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2356820548420687</v>
+        <v>0.09999999999999989</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2502164502164502</v>
+        <v>0.0535714285714285</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2569489334195216</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1978421859039836</v>
+        <v>0.06690561529271211</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2017618884707492</v>
+        <v>0.06354166666666659</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1092105263157894</v>
+        <v>0.07275132275132271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2450396825396825</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3209459459459459</v>
+        <v>0.4026696329254727</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1914700544464609</v>
+        <v>0.2811827956989247</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2785367785367785</v>
+        <v>0.3166666666666666</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4711229946524064</v>
+        <v>0.4182692307692308</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.097331240188383</v>
+        <v>0.07717803030303021</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1107715813598166</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1663398692810457</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1489071038251366</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="U4" t="n">
-        <v>0.267479674796748</v>
+        <v>0.0557029177718832</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2058270676691729</v>
+        <v>0.0786901270772238</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1648809523809524</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0813174001748761</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2224025974025973</v>
+        <v>0.0518433179723502</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.241059379217274</v>
+        <v>0.09478021978021969</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1016981613891726</v>
+        <v>0.0683908045977011</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2392676767676768</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2517045454545454</v>
+        <v>0.0166666666666666</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1881437881017447</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.2391053391053391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -888,94 +888,94 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1962323390894819</v>
+        <v>0.07717803030303021</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1055003819709702</v>
+        <v>0.0887611749680715</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2565359477124183</v>
+        <v>0.0651515151515151</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1874068554396423</v>
+        <v>0.069047619047619</v>
       </c>
       <c r="F5" t="n">
-        <v>0.266910569105691</v>
+        <v>0.0729442970822281</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2438238453276047</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1836309523809524</v>
+        <v>0.0777126099706745</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1870445934129991</v>
+        <v>0.0484913793103448</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2040043290043289</v>
+        <v>0.0841013824884792</v>
       </c>
       <c r="K5" t="n">
-        <v>0.233468286099865</v>
+        <v>0.0755494505494505</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1980975485188968</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2398989898989899</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1698863636363636</v>
+        <v>0.0511904761904761</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2478452806390582</v>
+        <v>0.09999999999999989</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1955988455988456</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2420168067226891</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1753702757916241</v>
+        <v>0.0353598014888337</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1620766335956209</v>
+        <v>0.03125</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0773026315789473</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2886904761904761</v>
+        <v>0.0517241379310344</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3274324324324325</v>
+        <v>0.517797552836485</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2400181488203266</v>
+        <v>0.1806451612903225</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1170181170181169</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3262032085561497</v>
+        <v>0.3725961538461538</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2017268445839874</v>
+        <v>0.0459280303030302</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1967914438502673</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1820261437908497</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.2126179831097864</v>
+        <v>0.0345238095238095</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.193170731707317</v>
+        <v>0.036472148541114</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.2240870032223416</v>
+        <v>0.0635386119257087</v>
       </c>
     </row>
     <row r="6">
@@ -985,94 +985,94 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5737837837837838</v>
+        <v>0.5050055617352613</v>
       </c>
       <c r="C6" t="n">
-        <v>0.441318814277072</v>
+        <v>0.2774193548387096</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5301455301455301</v>
+        <v>0.7370967741935484</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6556149732620321</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2543171114599686</v>
+        <v>0.0610795454545454</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2462948815889992</v>
+        <v>0.0887611749680715</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1839869281045751</v>
+        <v>0.0636363636363636</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2593144560357675</v>
+        <v>0.08124999999999991</v>
       </c>
       <c r="J6" t="n">
-        <v>0.222520325203252</v>
+        <v>0.0523399014778325</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3657357679914071</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2157738095238094</v>
+        <v>0.058080808080808</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2266103176916351</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2337662337662337</v>
+        <v>0.07963709677419351</v>
       </c>
       <c r="O6" t="n">
-        <v>0.305668016194332</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1578779366700715</v>
+        <v>0.1017241379310344</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2123106060606061</v>
+        <v>0.0330086580086579</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1971590909090909</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1816033755274261</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2335497835497835</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2499030381383322</v>
+        <v>0.0722222222222222</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2201225740551582</v>
+        <v>0.09784946236559131</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2080910023947998</v>
+        <v>0.0166666666666666</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2177631578947368</v>
+        <v>0.0363756613756613</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2738095238095238</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6885135135135134</v>
+        <v>0.3615127919911012</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4535692679975801</v>
+        <v>0.1462365591397849</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3944658944658945</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.6331550802139037</v>
+        <v>0.5300480769230769</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.129905808477237</v>
+        <v>0.0307765151515151</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.2339190221543162</v>
+        <v>0.0357598978288633</v>
       </c>
     </row>
     <row r="7">
@@ -1082,94 +1082,94 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1693054136874361</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2304292929292929</v>
+        <v>0.0838744588744588</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08124999999999991</v>
+        <v>0.06562499999999991</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2254572209375656</v>
+        <v>0.046078431372549</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2326118326118326</v>
+        <v>0.0523809523809523</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2495151906916612</v>
+        <v>0.069047619047619</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2712589376915219</v>
+        <v>0.1029776674937965</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2351180294218268</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2177631578947368</v>
+        <v>0.0496342737722048</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2490079365079365</v>
+        <v>0.1034482758620689</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5237837837837838</v>
+        <v>0.8387096774193548</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3287961282516636</v>
+        <v>0.6241935483870967</v>
       </c>
       <c r="N7" t="n">
-        <v>0.376002376002376</v>
+        <v>0.25</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5812834224598931</v>
+        <v>0.7391826923076923</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2488226059654631</v>
+        <v>0.0464015151515151</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2032849503437738</v>
+        <v>0.0344827586206896</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1274509803921568</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2517386984600099</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="T7" t="n">
-        <v>0.157560975609756</v>
+        <v>0.036472148541114</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2927786499215071</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1842261904761905</v>
+        <v>0.0147058823529411</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1909064412707665</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1996753246753246</v>
+        <v>0.0662442396313364</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2203103913630229</v>
+        <v>0.1114058355437666</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1754979570990807</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2171717171717171</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2625</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.2561488332982972</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2261183261183261</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2402903811252268</v>
+        <v>0.08888888888888891</v>
       </c>
     </row>
     <row r="8">
@@ -1179,94 +1179,94 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2553975436328377</v>
+        <v>0.0511494252873563</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2372318692543412</v>
+        <v>0.1029776674937965</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2684741703729045</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1161184210526315</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3323412698412698</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5202702702702703</v>
+        <v>0.7075268817204301</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2835753176043557</v>
+        <v>0.6580645161290323</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4275319275319275</v>
+        <v>0.7106060606060606</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4754010695187166</v>
+        <v>0.5588942307692308</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2480376766091051</v>
+        <v>0.0767045454545454</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2221543162719633</v>
+        <v>0.0839080459770114</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1712418300653594</v>
+        <v>0.08181818181818171</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2504967709885742</v>
+        <v>0.069047619047619</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2486178861788617</v>
+        <v>0.0729442970822281</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2393931256713211</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1904761904761904</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1809967939376275</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2229437229437229</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1811740890688258</v>
+        <v>0.0878136200716846</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2372957099080694</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1887626262626263</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="W8" t="n">
-        <v>0.11875</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2171536682783267</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2484126984126984</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2732057416267942</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2034601634320735</v>
+        <v>0.0650537634408602</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2621450564488539</v>
+        <v>0.015625</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1865131578947368</v>
+        <v>0.0357598978288633</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2073412698412698</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.482972972972973</v>
+        <v>0.3303670745272525</v>
       </c>
     </row>
     <row r="9">
@@ -1276,94 +1276,94 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2234156820622986</v>
+        <v>0.0615835777126099</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2023809523809523</v>
+        <v>0.0464320625610947</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0972748469833867</v>
+        <v>0.1004464285714285</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2224025974025973</v>
+        <v>0.1311827956989247</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2201417004048583</v>
+        <v>0.1318681318681318</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1977145045965271</v>
+        <v>0.1189655172413793</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1938131313131313</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1869318181818182</v>
+        <v>0.0672413793103448</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2096909817111625</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2455988455988456</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2730446024563671</v>
+        <v>0.0537037037037037</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2035240040858018</v>
+        <v>0.0514888337468982</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2161306876496749</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1980263157894736</v>
+        <v>0.0548941798941798</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1805555555555555</v>
+        <v>0.1034482758620689</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3556756756756756</v>
+        <v>0.3270300333704116</v>
       </c>
       <c r="R9" t="n">
-        <v>0.272761645493043</v>
+        <v>0.1623655913978494</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3000693000693</v>
+        <v>0.5333333333333334</v>
       </c>
       <c r="T9" t="n">
-        <v>0.493048128342246</v>
+        <v>0.1971153846153846</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2441130298273155</v>
+        <v>0.0307765151515151</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1992360580595874</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2104575163398693</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1495280675608544</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2308943089430894</v>
+        <v>0.036472148541114</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2342910848549946</v>
+        <v>0.0474095796676442</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1779761904761904</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.2334596327601282</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2359307359307359</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1818488529014845</v>
+        <v>0.0755494505494505</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1634959141981614</v>
+        <v>0.06781609195402299</v>
       </c>
     </row>
     <row r="10">
@@ -1373,94 +1373,94 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1827380952380952</v>
+        <v>0.0469639468690702</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1656951326143981</v>
+        <v>0.0825892857142857</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2164502164502164</v>
+        <v>0.1180875576036866</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2665317139001349</v>
+        <v>0.0823732718894009</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2316777323799795</v>
+        <v>0.1166666666666666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.202020202020202</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.0678571428571428</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1666988230754389</v>
+        <v>0.0327956989247311</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2344877344877344</v>
+        <v>0.0892857142857142</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3016806722689075</v>
+        <v>0.069047619047619</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2260597548518896</v>
+        <v>0.1352357320099255</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2244780535919776</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2559210526315789</v>
+        <v>0.0878136200716846</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2549603174603175</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5387837837837838</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2859951603145795</v>
+        <v>0.2435483870967741</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3824868824868825</v>
+        <v>0.5333333333333334</v>
       </c>
       <c r="S10" t="n">
-        <v>0.611764705882353</v>
+        <v>0.7704326923076923</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1966248037676609</v>
+        <v>0.0307765151515151</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1961802902979373</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2006535947712418</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2365871833084948</v>
+        <v>0.0345238095238095</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1697560975609756</v>
+        <v>0.0505747126436781</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2446294307196562</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1958333333333333</v>
+        <v>0.0417329093799682</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.2243515010201107</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.2353896103896103</v>
+        <v>0.0662442396313364</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.2599527665317139</v>
+        <v>0.09102564102564099</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1297880490296221</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.2158167036215816</v>
+        <v>0.0330086580086579</v>
       </c>
     </row>
     <row r="11">
@@ -1470,94 +1470,94 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2150496562261268</v>
+        <v>0.07024265644955301</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1950980392156862</v>
+        <v>0.0484848484848484</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2888026607538803</v>
+        <v>0.0678571428571428</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2486178861788617</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2504027926960258</v>
+        <v>0.1109481915933528</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2377976190476191</v>
+        <v>0.0474095796676442</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2235499854269892</v>
+        <v>0.07717803030303021</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2169913419913419</v>
+        <v>0.119815668202765</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2272267206477732</v>
+        <v>0.1269230769230769</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1922242083758937</v>
+        <v>0.1011494252873563</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2102272727272727</v>
+        <v>0.0820271682340647</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1801136363636363</v>
+        <v>0.06612903225806439</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2022282951439983</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2289321789321789</v>
+        <v>0.0523809523809523</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3221073044602456</v>
+        <v>0.0722222222222222</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2259959141981614</v>
+        <v>0.06451612903225799</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2220321587410195</v>
+        <v>0.015625</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1848684210526315</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2559523809523809</v>
+        <v>0.0517241379310344</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7593243243243244</v>
+        <v>0.378754171301446</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2079552329098608</v>
+        <v>0.1462365591397849</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4015939015939016</v>
+        <v>0.7833333333333334</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5310160427807487</v>
+        <v>0.7391826923076923</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2221350078492935</v>
+        <v>0.0307765151515151</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.1980137509549274</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1375816993464052</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.2414797238999137</v>
+        <v>0.0535714285714285</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.2413821138211382</v>
+        <v>0.0384615384615384</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2007250268528463</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.2377976190476191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1567,94 +1567,94 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1965909090909091</v>
+        <v>0.07941176470588231</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1525120874500736</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2623376623376623</v>
+        <v>0.0535714285714285</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2769877181641887</v>
+        <v>0.0523809523809523</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2431052093973442</v>
+        <v>0.1176821983273596</v>
       </c>
       <c r="G12" t="n">
-        <v>0.26257269928156</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2371710526315789</v>
+        <v>0.0521885521885521</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2390873015873015</v>
+        <v>0.0820271682340647</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3871621621621621</v>
+        <v>0.5129032258064516</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3253932244404114</v>
+        <v>0.5908602150537634</v>
       </c>
       <c r="L12" t="n">
-        <v>0.44005544005544</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="M12" t="n">
-        <v>0.593048128342246</v>
+        <v>0.8372844827586207</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2111459968602825</v>
+        <v>0.0598214285714285</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2020626432391138</v>
+        <v>0.07024265644955301</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2633986928104575</v>
+        <v>0.0803030303030302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2946760982874162</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2236585365853658</v>
+        <v>0.0357598978288633</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2635606874328679</v>
+        <v>0.0635386119257087</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2017857142857143</v>
+        <v>0.0161290322580645</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2303993004954824</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2353896103896103</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2596153846153846</v>
+        <v>0.0384615384615384</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1354060265577119</v>
+        <v>0.0511494252873563</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2095959595959596</v>
+        <v>0.0323928944618599</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.275</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.1887715179968701</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.2595238095238095</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2777634130575306</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.1864785495403473</v>
+        <v>0.0837468982630272</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.2237427300718439</v>
+        <v>0.0322916666666666</v>
       </c>
     </row>
     <row r="13">
@@ -1664,94 +1664,94 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2559210526315789</v>
+        <v>0.06601731601731591</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2767857142857142</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6872972972972973</v>
+        <v>0.8053392658509455</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4001814882032667</v>
+        <v>0.7569892473118279</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3935748935748935</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="G13" t="n">
-        <v>0.731505483549352</v>
+        <v>0.4282407407407407</v>
       </c>
       <c r="H13" t="n">
-        <v>0.249215070643642</v>
+        <v>0.0615530303030302</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1967914438502673</v>
+        <v>0.0511494252873563</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2578431372549019</v>
+        <v>0.0803030303030302</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2517386984600099</v>
+        <v>0.0817204301075268</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2419512195121951</v>
+        <v>0.0557029177718832</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2357679914070891</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1032738095238095</v>
+        <v>0.044700460829493</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2486884290294375</v>
+        <v>0.0334821428571428</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2169913419913419</v>
+        <v>0.1359447004608295</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3054993252361673</v>
+        <v>0.09478021978021969</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1301072522982635</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2225331674958541</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2079545454545454</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1913871831207683</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2613997113997114</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2612798965740142</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2090143003064351</v>
+        <v>0.0676178660049627</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2346903865891207</v>
+        <v>0.015625</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.2375</v>
+        <v>0.0363756613756613</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2847222222222222</v>
+        <v>0.0517241379310344</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.6940540540540541</v>
+        <v>0.3292547274749722</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2999092558983666</v>
+        <v>0.1946236559139785</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.2566577566577566</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.6863083164300203</v>
+        <v>0.5997596153846154</v>
       </c>
     </row>
     <row r="14">
@@ -1761,94 +1761,94 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2976190476190476</v>
+        <v>0.08398220244716351</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6790540540540541</v>
+        <v>0.7146829810901001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3697065940713854</v>
+        <v>0.6435483870967742</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3615978615978615</v>
+        <v>0.65</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5256684491978609</v>
+        <v>0.7427884615384616</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2083987441130297</v>
+        <v>0.0588744588744588</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2339190221543162</v>
+        <v>0.07024265644955301</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1450980392156862</v>
+        <v>0.0484848484848484</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2277694982613015</v>
+        <v>0.0666666666666666</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2330081300813008</v>
+        <v>0.09217506631299729</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2810150375939849</v>
+        <v>0.0796676441837732</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2017857142857143</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2129116875546488</v>
+        <v>0.046875</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2283549783549783</v>
+        <v>0.1180875576036866</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2365172189733593</v>
+        <v>0.1126373626373626</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1357890704800817</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2171717171717171</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2448863636363636</v>
+        <v>0.0166666666666666</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2026487281900357</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2484126984126984</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="V14" t="n">
-        <v>0.2616677440206852</v>
+        <v>0.0722222222222222</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1980337078651685</v>
+        <v>0.06451612903225799</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2490591857680465</v>
+        <v>0.0322916666666666</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1217105263157894</v>
+        <v>0.034647550776583</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.2926587301587302</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.4962162162162162</v>
+        <v>0.3615127919911012</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.3532970356926799</v>
+        <v>0.1462365591397849</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.334026334026334</v>
+        <v>0.65</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.6042780748663101</v>
+        <v>0.7235576923076923</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.2327315541601256</v>
+        <v>0.0459280303030302</v>
       </c>
     </row>
     <row r="15">
@@ -1858,94 +1858,94 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2022081373952157</v>
+        <v>0.0429824561403509</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2669552669552669</v>
+        <v>0.0535714285714285</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2942469295410472</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1921603677221655</v>
+        <v>0.0973118279569892</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1970332401366883</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1684210526315789</v>
+        <v>0.06929510155316609</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3214285714285714</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4597297297297297</v>
+        <v>0.8521505376344086</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3614640048396854</v>
+        <v>0.2967741935483871</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2921492921492922</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7657754010695188</v>
+        <v>0.609375</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1895604395604395</v>
+        <v>0.0610795454545454</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2410236822001528</v>
+        <v>0.1015531660692951</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1281045751633986</v>
+        <v>0.0484848484848484</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2352430555555555</v>
+        <v>0.1202380952380952</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2547154471544715</v>
+        <v>0.0344827586206896</v>
       </c>
       <c r="R15" t="n">
-        <v>0.215359828141783</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1877076411960133</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2425677645001457</v>
+        <v>0.0334821428571428</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2052469135802469</v>
+        <v>0.0518433179723502</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3061740890688258</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1470888661899898</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2266414141414141</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1715909090909091</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.2280487804878048</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.2354256854256854</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.2502908855850032</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.2090781409601634</v>
+        <v>0.0483870967741935</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.2102292165583304</v>
+        <v>0.015625</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1624999999999999</v>
+        <v>0.0363756613756613</v>
       </c>
     </row>
     <row r="16">
@@ -1955,94 +1955,94 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.0803030303030302</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2423598461849828</v>
+        <v>0.069047619047619</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2558536585365853</v>
+        <v>0.0749336870026525</v>
       </c>
       <c r="E16" t="n">
-        <v>0.208780880773362</v>
+        <v>0.0786901270772238</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1898809523809523</v>
+        <v>0.0616698292220114</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2250801515593121</v>
+        <v>0.0825892857142857</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2294372294372294</v>
+        <v>0.0841013824884792</v>
       </c>
       <c r="I16" t="n">
-        <v>0.200910931174089</v>
+        <v>0.1269230769230769</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1635597548518896</v>
+        <v>0.1017241379310344</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2184343434343434</v>
+        <v>0.0820271682340647</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2386363636363636</v>
+        <v>0.0651515151515151</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2305242082271568</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2419191919191919</v>
+        <v>0.0708128078817733</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2839009287925696</v>
+        <v>0.0523809523809523</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1977783452502554</v>
+        <v>0.0998759305210917</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2401430842607313</v>
+        <v>0.015625</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1592105263157894</v>
+        <v>0.034647550776583</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2311507936507936</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3929729729729729</v>
+        <v>0.468298109010011</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3663036902601331</v>
+        <v>0.3768817204301075</v>
       </c>
       <c r="V16" t="n">
-        <v>0.1610731610731611</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="W16" t="n">
-        <v>0.4080213903743315</v>
+        <v>0.5432692307692308</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1338304552590267</v>
+        <v>0.0615530303030302</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.1055003819709702</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.234313725490196</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.2283904619970194</v>
+        <v>0.0345238095238095</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.2730081300813008</v>
+        <v>0.0537135278514588</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.218313641245972</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.1351190476190476</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.2319294666278052</v>
+        <v>0.0178571428571428</v>
       </c>
     </row>
     <row r="17">
@@ -2052,94 +2052,94 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0813174001748761</v>
+        <v>0.0825892857142857</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2224025974025973</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2209851551956815</v>
+        <v>0.09340659340659339</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1634959141981614</v>
+        <v>0.1017241379310344</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2449494949494949</v>
+        <v>0.06601731601731591</v>
       </c>
       <c r="G17" t="n">
-        <v>0.10625</v>
+        <v>0.0857142857142856</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1947656085768341</v>
+        <v>0.0666666666666666</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2520923520923521</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2040077569489334</v>
+        <v>0.0537037037037037</v>
       </c>
       <c r="K17" t="n">
-        <v>0.180796731358529</v>
+        <v>0.0676178660049627</v>
       </c>
       <c r="L17" t="n">
-        <v>0.201334245638043</v>
+        <v>0.0489583333333333</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1713815789473684</v>
+        <v>0.0548941798941798</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3556756756756756</v>
+        <v>0.235817575083426</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1224289171203871</v>
+        <v>0.2311827956989247</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1790911790911791</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2256684491978609</v>
+        <v>0.421875</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1691522762951334</v>
+        <v>0.015625</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1367456073338426</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2395424836601307</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2038002980625931</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2419512195121951</v>
+        <v>0.0729442970822281</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0773361976369495</v>
+        <v>0.0474095796676442</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1773809523809523</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1558583503351792</v>
+        <v>0.0513392857142857</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.0501152073732719</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.2793522267206478</v>
+        <v>0.0563186813186812</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1469611848825331</v>
+        <v>0.0339080459770114</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.1729797979797979</v>
+        <v>0.0303030303030302</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.1784090909090909</v>
+        <v>0.0333333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -2149,94 +2149,94 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2260597548518896</v>
+        <v>0.1176821983273596</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2427300718439959</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>0.262828947368421</v>
+        <v>0.0625</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2827380952380952</v>
+        <v>0.1034482758620689</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6370270270270271</v>
+        <v>0.8240927419354839</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2406987295825771</v>
+        <v>0.3940860215053763</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4254529254529254</v>
+        <v>0.5</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5310160427807487</v>
+        <v>0.9182692307692308</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1613029827315541</v>
+        <v>0.074025974025974</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2085561497326203</v>
+        <v>0.0874840357598978</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2169934640522876</v>
+        <v>0.0636363636363636</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2031793343268753</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2491869918699187</v>
+        <v>0.0514888337468982</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2700053705692803</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2080357142857143</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2137132031477703</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1601731601731602</v>
+        <v>0.0841013824884792</v>
       </c>
       <c r="S18" t="n">
-        <v>0.2960526315789473</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1522599591419816</v>
+        <v>0.0505747126436781</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1971690590111642</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="V18" t="n">
-        <v>0.1545454545454545</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1964473407609838</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2354256854256854</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2612798965740142</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.2601506639427987</v>
+        <v>0.06451612903225799</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.2080910023947998</v>
+        <v>0.0459280303030302</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.2625</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.2738095238095238</v>
+        <v>0.0517241379310344</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.489054054054054</v>
+        <v>0.3270300333704116</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.3878554143980641</v>
+        <v>0.1623655913978494</v>
       </c>
     </row>
     <row r="19">
@@ -2246,94 +2246,94 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1941463414634146</v>
+        <v>0.0537135278514588</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1801825993555316</v>
+        <v>0.1099706744868035</v>
       </c>
       <c r="D19" t="n">
-        <v>0.244345238095238</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1923637423491693</v>
+        <v>0.06473214285714279</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2119324473975636</v>
+        <v>0.1019585253456221</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2790148448043185</v>
+        <v>0.1318681318681318</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2318054136874361</v>
+        <v>0.1362068965517241</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2159090909090908</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05625</v>
+        <v>0.0672413793103448</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2207566817077403</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2289321789321789</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3005171299288946</v>
+        <v>0.0537037037037037</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2656409601634321</v>
+        <v>0.1467741935483871</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2237427300718439</v>
+        <v>0.0489583333333333</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2615131578947368</v>
+        <v>0.0537037037037037</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4097297297297297</v>
+        <v>0.346496106785317</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4174984875983061</v>
+        <v>0.182258064516129</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3285318285318285</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9272727272727272</v>
+        <v>0.7463942307692308</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1907378335949764</v>
+        <v>0.0459280303030302</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2156608097784568</v>
+        <v>0.0344827586206896</v>
       </c>
       <c r="X19" t="n">
-        <v>0.2176470588235294</v>
+        <v>0.0484848484848484</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2529806259314456</v>
+        <v>0.0166666666666666</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.2608130081300813</v>
+        <v>0.0138888888888888</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2393931256713211</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.231547619047619</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.2319294666278052</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.196969696969697</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.2918353576248313</v>
+        <v>0.0729442970822281</v>
       </c>
     </row>
     <row r="20">
@@ -2343,94 +2343,94 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7112299465240641</v>
+        <v>0.7007211538461539</v>
       </c>
       <c r="C20" t="n">
-        <v>0.23861852433281</v>
+        <v>0.0767045454545454</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2085561497326203</v>
+        <v>0.0333704115684093</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1339869281045751</v>
+        <v>0.0484848484848484</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2798935298935299</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2486178861788617</v>
+        <v>0.09217506631299729</v>
       </c>
       <c r="H20" t="n">
-        <v>0.225563909774436</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2139880952380952</v>
+        <v>0.058080808080808</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2182308364908189</v>
+        <v>0.06473214285714279</v>
       </c>
       <c r="K20" t="n">
-        <v>0.211038961038961</v>
+        <v>0.0841013824884792</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2668690958164642</v>
+        <v>0.1214285714285714</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2489147088866189</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2045454545454545</v>
+        <v>0.0607142857142857</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1767045454545454</v>
+        <v>0.06612903225806439</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2155887230514096</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2484126984126984</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2797026502908856</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2486593462717058</v>
+        <v>0.0989988876529477</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2292165583304823</v>
+        <v>0.015625</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2944078947368421</v>
+        <v>0.0363756613756613</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2351190476190476</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="W20" t="n">
-        <v>0.517027027027027</v>
+        <v>0.3281423804226919</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3714458560193587</v>
+        <v>0.4252688172043011</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.339075339075339</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.7737874097007224</v>
+        <v>0.8569711538461539</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.1703296703296703</v>
+        <v>0.0459280303030302</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.2280366692131398</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1392156862745098</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.213859910581222</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.2480487804878048</v>
+        <v>0.0384615384615384</v>
       </c>
     </row>
     <row r="21">
@@ -2440,94 +2440,94 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2178030303030303</v>
+        <v>0.0484848484848484</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1124999999999999</v>
+        <v>0.0678571428571428</v>
       </c>
       <c r="D21" t="n">
-        <v>0.196796161584894</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2947330447330447</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2393018745959922</v>
+        <v>0.0531660692951015</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2317415730337078</v>
+        <v>0.0998759305210917</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2516479894528675</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2371710526315789</v>
+        <v>0.06828703703703699</v>
       </c>
       <c r="J21" t="n">
-        <v>0.25</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5697297297297297</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4312613430127042</v>
+        <v>0.7236559139784946</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3015048015048014</v>
+        <v>0.5166666666666666</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6155080213903743</v>
+        <v>0.640625</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2598116169544741</v>
+        <v>0.0767045454545454</v>
       </c>
       <c r="P21" t="n">
-        <v>0.2286478227654698</v>
+        <v>0.063973063973064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1627450980392156</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2365871833084948</v>
+        <v>0.0511904761904761</v>
       </c>
       <c r="S21" t="n">
-        <v>0.2741463414634146</v>
+        <v>0.0557029177718832</v>
       </c>
       <c r="T21" t="n">
-        <v>0.218984962406015</v>
+        <v>0.0796676441837732</v>
       </c>
       <c r="U21" t="n">
-        <v>0.225595238095238</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="V21" t="n">
-        <v>0.2349897988924512</v>
+        <v>0.0491071428571428</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.08582949308755761</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2270580296896086</v>
+        <v>0.09102564102564099</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.1694330949948927</v>
+        <v>0.06781609195402299</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.252034292356873</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.1970702045328911</v>
+        <v>0.0666666666666666</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1678210678210678</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.2444085326438267</v>
+        <v>0.08888888888888891</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.2429136874361593</v>
+        <v>0.0676178660049627</v>
       </c>
     </row>
     <row r="22">
@@ -2537,94 +2537,94 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.246685606060606</v>
+        <v>0.0678571428571428</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2286178861788618</v>
+        <v>0.09217506631299729</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3190118152524167</v>
+        <v>0.0948191593352883</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2023809523809523</v>
+        <v>0.0474095796676442</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2494170795686389</v>
+        <v>0.0982142857142857</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2045454545454545</v>
+        <v>0.1019585253456221</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2675948592411261</v>
+        <v>0.0734126984126984</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2145684371807967</v>
+        <v>0.1017241379310344</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2089646464646464</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="K22" t="n">
-        <v>0.11875</v>
+        <v>0.0511904761904761</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2310971089696071</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2419191919191919</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2608920491273432</v>
+        <v>0.07168458781362</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2770045965270684</v>
+        <v>0.0998759305210917</v>
       </c>
       <c r="P22" t="n">
-        <v>0.2346903865891207</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2115131578947368</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2668650793650793</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5337837837837838</v>
+        <v>0.2969966629588431</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3138989715668481</v>
+        <v>0.1629032258064516</v>
       </c>
       <c r="U22" t="n">
-        <v>0.7360657360657361</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5791443850267379</v>
+        <v>0.4913793103448275</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1962323390894819</v>
+        <v>0.0615530303030302</v>
       </c>
       <c r="X22" t="n">
-        <v>0.1702062643239114</v>
+        <v>0.0357598978288633</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1839869281045751</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.2232109751575825</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.242520325203252</v>
+        <v>0.0384615384615384</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.2795381310418904</v>
+        <v>0.0635386119257087</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.2318452380952381</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.1817254444768289</v>
+        <v>0.0334821428571428</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.0679723502304147</v>
       </c>
     </row>
     <row r="23">
@@ -2634,94 +2634,94 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2164502164502164</v>
+        <v>0.08582949308755761</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2213225371120108</v>
+        <v>0.0729442970822281</v>
       </c>
       <c r="D23" t="n">
-        <v>0.214632277834525</v>
+        <v>0.1189655172413793</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1997549019607843</v>
+        <v>0.0481601731601731</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1124999999999999</v>
+        <v>0.0511904761904761</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2000785545954438</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2298701298701298</v>
+        <v>0.0892857142857142</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2557853910795087</v>
+        <v>0.0523809523809523</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2656409601634321</v>
+        <v>0.0998759305210917</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1954327745466986</v>
+        <v>0.0479166666666666</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2740131578947368</v>
+        <v>0.07275132275132271</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2559523809523809</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5693243243243243</v>
+        <v>0.3348164627363737</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4264216575922565</v>
+        <v>0.7080645161290322</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2861102861102861</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7529411764705882</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2021193092621663</v>
+        <v>0.0459280303030302</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2168831168831168</v>
+        <v>0.0344827586206896</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1787581699346405</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2077167019027484</v>
+        <v>0.0166666666666666</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2347154471544715</v>
+        <v>0.0729442970822281</v>
       </c>
       <c r="W23" t="n">
-        <v>0.2701396348012889</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="X23" t="n">
-        <v>0.181547619047619</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2151705042261731</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.2261904761904762</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.2074898785425101</v>
+        <v>0.0774509803921568</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.2203779366700715</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.2102272727272727</v>
+        <v>0.0330086580086579</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.1215909090909091</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.2119402985074626</v>
+        <v>0.0666666666666666</v>
       </c>
     </row>
     <row r="24">
@@ -2731,94 +2731,94 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2400181488203266</v>
+        <v>0.2623655913978495</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4369864369864369</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4647058823529412</v>
+        <v>0.5889423076923077</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0847723704866562</v>
+        <v>0.07717803030303021</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2475171886936593</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1568627450980392</v>
+        <v>0.0803030303030302</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2265275707898658</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1842276422764227</v>
+        <v>0.0494994438264738</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1758861439312567</v>
+        <v>0.1099706744868035</v>
       </c>
       <c r="K24" t="n">
-        <v>0.24375</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2319294666278052</v>
+        <v>0.0620265151515151</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2099567099567099</v>
+        <v>0.1342165898617511</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2921727395411606</v>
+        <v>0.1126373626373626</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2036516853932584</v>
+        <v>0.1362068965517241</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1893939393939394</v>
+        <v>0.06331168831168831</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1079545454545454</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1964473407609838</v>
+        <v>0.0499999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>0.2048340548340548</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2539641943734015</v>
+        <v>0.0722222222222222</v>
       </c>
       <c r="U24" t="n">
-        <v>0.2441042103963452</v>
+        <v>0.06451612903225799</v>
       </c>
       <c r="V24" t="n">
-        <v>0.2220321587410195</v>
+        <v>0.015625</v>
       </c>
       <c r="W24" t="n">
-        <v>0.2111842105263157</v>
+        <v>0.0548941798941798</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1994047619047619</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.4497297297297297</v>
+        <v>0.0817575083426028</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.2621748336358137</v>
+        <v>0.1784946236559139</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.3614988614988615</v>
+        <v>0.5747311827956989</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.7016042780748664</v>
+        <v>0.7079326923076923</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.2001569858712716</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.1974025974025973</v>
+        <v>0.0530012771392082</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.2098039215686274</v>
+        <v>0.0318181818181818</v>
       </c>
     </row>
     <row r="25">
@@ -2828,94 +2828,94 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2520923520923521</v>
+        <v>0.0892857142857142</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2381383322559793</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231550051072523</v>
+        <v>0.119106699751861</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1764454327745466</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2302631578947368</v>
+        <v>0.0673400673400673</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1537698412698412</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3498648648648648</v>
+        <v>0.6520039100684262</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2119630973986691</v>
+        <v>0.656989247311828</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3485298485298485</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4064171122994652</v>
+        <v>0.6225961538461539</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1762166405023548</v>
+        <v>0.0615530303030302</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1902979373567608</v>
+        <v>0.0715197956577267</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.0484848484848484</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2593144560357675</v>
+        <v>0.069047619047619</v>
       </c>
       <c r="P25" t="n">
-        <v>0.2103252032520325</v>
+        <v>0.09217506631299729</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2306659505907626</v>
+        <v>0.0312805474095796</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1526785714285714</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.2418391139609443</v>
+        <v>0.0669642857142857</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2288961038961038</v>
+        <v>0.0679723502304147</v>
       </c>
       <c r="U25" t="n">
-        <v>0.3049932523616734</v>
+        <v>0.09102564102564099</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1465143003064351</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1887626262626263</v>
+        <v>0.0151515151515151</v>
       </c>
       <c r="X25" t="n">
-        <v>0.1465909090909091</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2101114147571999</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.24004329004329</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.2612798965740142</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.2319330949948927</v>
+        <v>0.1002304147465437</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2021895313034553</v>
+        <v>0.03125</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.1276315789473684</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.2767857142857142</v>
+        <v>0.0689655172413793</v>
       </c>
     </row>
   </sheetData>
